--- a/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.77988953138949</v>
+        <v>30.77988953138959</v>
       </c>
       <c r="C2">
-        <v>24.00571641003295</v>
+        <v>24.00571641003289</v>
       </c>
       <c r="D2">
-        <v>4.208375786759035</v>
+        <v>4.208375786758981</v>
       </c>
       <c r="E2">
-        <v>30.69496123494899</v>
+        <v>30.69496123494905</v>
       </c>
       <c r="F2">
-        <v>42.2610378129617</v>
+        <v>42.26103781296182</v>
       </c>
       <c r="G2">
-        <v>2.009285130901935</v>
+        <v>2.009285130902061</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.69904419260123</v>
+        <v>11.6990441926012</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.46799531256145</v>
+        <v>28.46799531256139</v>
       </c>
       <c r="C3">
-        <v>22.20128770422501</v>
+        <v>22.20128770422492</v>
       </c>
       <c r="D3">
-        <v>4.160390718355703</v>
+        <v>4.160390718355714</v>
       </c>
       <c r="E3">
-        <v>28.28239235834911</v>
+        <v>28.28239235834912</v>
       </c>
       <c r="F3">
-        <v>39.56150549226589</v>
+        <v>39.56150549226594</v>
       </c>
       <c r="G3">
-        <v>2.025719756243939</v>
+        <v>2.025719756243808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.99050587723813</v>
+        <v>26.99050587723817</v>
       </c>
       <c r="C4">
-        <v>21.04924245431761</v>
+        <v>21.04924245431762</v>
       </c>
       <c r="D4">
-        <v>4.139834384031139</v>
+        <v>4.139834384031086</v>
       </c>
       <c r="E4">
-        <v>26.75519243024204</v>
+        <v>26.75519243024212</v>
       </c>
       <c r="F4">
-        <v>37.88942779962377</v>
+        <v>37.88942779962382</v>
       </c>
       <c r="G4">
-        <v>2.035875336940634</v>
+        <v>2.035875336940506</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.0899585966813</v>
+        <v>12.08995859668128</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.37320182007718</v>
+        <v>26.37320182007738</v>
       </c>
       <c r="C5">
-        <v>20.56812152208415</v>
+        <v>20.56812152208438</v>
       </c>
       <c r="D5">
-        <v>4.133453422778024</v>
+        <v>4.133453422777919</v>
       </c>
       <c r="E5">
-        <v>26.12023604874532</v>
+        <v>26.12023604874544</v>
       </c>
       <c r="F5">
-        <v>37.20421647636306</v>
+        <v>37.20421647636307</v>
       </c>
       <c r="G5">
-        <v>2.040039344785807</v>
+        <v>2.040039344785936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15310452408726</v>
+        <v>12.15310452408715</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.26976300824438</v>
+        <v>26.2697630082444</v>
       </c>
       <c r="C6">
         <v>20.48751290562267</v>
       </c>
       <c r="D6">
-        <v>4.132507702474646</v>
+        <v>4.132507702474592</v>
       </c>
       <c r="E6">
-        <v>26.01401183133923</v>
+        <v>26.0140118313393</v>
       </c>
       <c r="F6">
-        <v>37.09020691076078</v>
+        <v>37.09020691076076</v>
       </c>
       <c r="G6">
-        <v>2.040732564086217</v>
+        <v>2.040732564086218</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16366254867844</v>
+        <v>12.16366254867841</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>26.98224308363403</v>
       </c>
       <c r="C7">
-        <v>21.04280176089728</v>
+        <v>21.04280176089735</v>
       </c>
       <c r="D7">
-        <v>4.13974055307834</v>
+        <v>4.139740553078346</v>
       </c>
       <c r="E7">
-        <v>26.74668155500922</v>
+        <v>26.74668155500906</v>
       </c>
       <c r="F7">
-        <v>37.88020231394892</v>
+        <v>37.88020231394903</v>
       </c>
       <c r="G7">
-        <v>2.035931379516775</v>
+        <v>2.035931379516911</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.09080529500004</v>
+        <v>12.09080529500017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.99436971282725</v>
+        <v>29.99436971282731</v>
       </c>
       <c r="C8">
-        <v>23.39234591804584</v>
+        <v>23.39234591804592</v>
       </c>
       <c r="D8">
-        <v>4.189828131142229</v>
+        <v>4.189828131142128</v>
       </c>
       <c r="E8">
-        <v>29.87192980331035</v>
+        <v>29.8719298033104</v>
       </c>
       <c r="F8">
-        <v>41.33307155014064</v>
+        <v>41.33307155014072</v>
       </c>
       <c r="G8">
         <v>2.014944376674247</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78031766410714</v>
+        <v>11.78031766410716</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.47545027554654</v>
+        <v>35.47545027554629</v>
       </c>
       <c r="C9">
-        <v>27.67965948835048</v>
+        <v>27.67965948835057</v>
       </c>
       <c r="D9">
-        <v>4.371031773086527</v>
+        <v>4.371031773086519</v>
       </c>
       <c r="E9">
-        <v>35.69538704377848</v>
+        <v>35.6953870437785</v>
       </c>
       <c r="F9">
-        <v>48.1890329872901</v>
+        <v>48.18903298728986</v>
       </c>
       <c r="G9">
-        <v>1.973799234012659</v>
+        <v>1.973799234012665</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21724677014345</v>
+        <v>11.21724677014341</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.30241081389184</v>
+        <v>39.30241081389178</v>
       </c>
       <c r="C10">
-        <v>30.68613307720633</v>
+        <v>30.68613307720625</v>
       </c>
       <c r="D10">
-        <v>4.574558112405425</v>
+        <v>4.574558112405397</v>
       </c>
       <c r="E10">
-        <v>39.89249119389975</v>
+        <v>39.89249119389967</v>
       </c>
       <c r="F10">
-        <v>53.40612111257149</v>
+        <v>53.40612111257147</v>
       </c>
       <c r="G10">
-        <v>1.942696235091802</v>
+        <v>1.942696235091538</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.84074457897586</v>
+        <v>10.84074457897584</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.0179783148167</v>
+        <v>41.01797831481667</v>
       </c>
       <c r="C11">
-        <v>32.03839586152048</v>
+        <v>32.03839586152038</v>
       </c>
       <c r="D11">
-        <v>4.687941319991214</v>
+        <v>4.687941319991223</v>
       </c>
       <c r="E11">
-        <v>41.81711508301742</v>
+        <v>41.81711508301741</v>
       </c>
       <c r="F11">
         <v>55.79077606193592</v>
       </c>
       <c r="G11">
-        <v>1.928087105919344</v>
+        <v>1.928087105919614</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.68082228305765</v>
+        <v>10.68082228305768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.66601254224831</v>
+        <v>41.66601254224817</v>
       </c>
       <c r="C12">
-        <v>32.55002933313204</v>
+        <v>32.55002933313189</v>
       </c>
       <c r="D12">
-        <v>4.780822860005569</v>
+        <v>4.780822860005568</v>
       </c>
       <c r="E12">
-        <v>42.55198799157959</v>
+        <v>42.55198799157954</v>
       </c>
       <c r="F12">
-        <v>56.69861440520724</v>
+        <v>56.69861440520702</v>
       </c>
       <c r="G12">
-        <v>1.922457970696066</v>
+        <v>1.922457970695931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.6223056634602</v>
+        <v>10.6223056634603</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.52647975205775</v>
+        <v>41.52647975205762</v>
       </c>
       <c r="C13">
         <v>32.43982541099742</v>
@@ -947,13 +947,13 @@
         <v>4.7602340940105</v>
       </c>
       <c r="E13">
-        <v>42.39337531645077</v>
+        <v>42.39337531645074</v>
       </c>
       <c r="F13">
-        <v>56.50281846790589</v>
+        <v>56.50281846790568</v>
       </c>
       <c r="G13">
-        <v>1.923675210240496</v>
+        <v>1.923675210240503</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63480930301751</v>
+        <v>10.63480930301754</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.07131107314351</v>
+        <v>41.0713110731437</v>
       </c>
       <c r="C14">
-        <v>32.08048499743308</v>
+        <v>32.08048499743327</v>
       </c>
       <c r="D14">
-        <v>4.693437404482384</v>
+        <v>4.693437404482415</v>
       </c>
       <c r="E14">
-        <v>41.87742548709223</v>
+        <v>41.87742548709246</v>
       </c>
       <c r="F14">
-        <v>55.8653458015824</v>
+        <v>55.86534580158269</v>
       </c>
       <c r="G14">
-        <v>1.927626146694064</v>
+        <v>1.927626146693932</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.67596427934421</v>
+        <v>10.67596427934409</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.79236719507768</v>
+        <v>40.79236719507771</v>
       </c>
       <c r="C15">
-        <v>31.86038302342746</v>
+        <v>31.86038302342742</v>
       </c>
       <c r="D15">
-        <v>4.672224575325945</v>
+        <v>4.672224575325944</v>
       </c>
       <c r="E15">
-        <v>41.5623160831851</v>
+        <v>41.56231608318519</v>
       </c>
       <c r="F15">
-        <v>55.47561570845802</v>
+        <v>55.47561570845811</v>
       </c>
       <c r="G15">
-        <v>1.930032509926234</v>
+        <v>1.930032509926108</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.70145352040983</v>
+        <v>10.70145352040979</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.18994537542645</v>
+        <v>39.18994537542653</v>
       </c>
       <c r="C16">
-        <v>30.59759014662051</v>
+        <v>30.59759014662081</v>
       </c>
       <c r="D16">
-        <v>4.567614055939537</v>
+        <v>4.567614055939552</v>
       </c>
       <c r="E16">
-        <v>39.76732377911328</v>
+        <v>39.76732377911345</v>
       </c>
       <c r="F16">
-        <v>53.25075673711881</v>
+        <v>53.25075673711898</v>
       </c>
       <c r="G16">
-        <v>1.943639280833085</v>
+        <v>1.943639280833082</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85145622461224</v>
+        <v>10.85145622461217</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.20169725543015</v>
+        <v>38.20169725543031</v>
       </c>
       <c r="C17">
-        <v>29.82007717719201</v>
+        <v>29.82007717719206</v>
       </c>
       <c r="D17">
-        <v>4.509143613770269</v>
+        <v>4.509143613770221</v>
       </c>
       <c r="E17">
-        <v>38.67246963559717</v>
+        <v>38.67246963559732</v>
       </c>
       <c r="F17">
-        <v>51.89075420541555</v>
+        <v>51.89075420541577</v>
       </c>
       <c r="G17">
-        <v>1.95184944118983</v>
+        <v>1.951849441189698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.94663545181734</v>
+        <v>10.94663545181726</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.63074961004661</v>
+        <v>37.63074961004674</v>
       </c>
       <c r="C18">
-        <v>29.37129270217483</v>
+        <v>29.37129270217499</v>
       </c>
       <c r="D18">
-        <v>4.477428480243581</v>
+        <v>4.47742848024358</v>
       </c>
       <c r="E18">
         <v>38.04389521525668</v>
       </c>
       <c r="F18">
-        <v>51.10934685163415</v>
+        <v>51.10934685163431</v>
       </c>
       <c r="G18">
-        <v>1.95653065760082</v>
+        <v>1.956530657600825</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.00241704196986</v>
+        <v>11.00241704196985</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.4369484041511</v>
+        <v>37.43694840415099</v>
       </c>
       <c r="C19">
-        <v>29.21902442800168</v>
+        <v>29.21902442800161</v>
       </c>
       <c r="D19">
-        <v>4.467003490494712</v>
+        <v>4.467003490494714</v>
       </c>
       <c r="E19">
-        <v>37.83117051402612</v>
+        <v>37.83117051402608</v>
       </c>
       <c r="F19">
-        <v>50.84483708612415</v>
+        <v>50.84483708612397</v>
       </c>
       <c r="G19">
-        <v>1.958109387582294</v>
+        <v>1.958109387582302</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.02147150880044</v>
+        <v>11.02147150880053</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.30714723703551</v>
+        <v>38.30714723703572</v>
       </c>
       <c r="C20">
-        <v>29.90299696036284</v>
+        <v>29.90299696036298</v>
       </c>
       <c r="D20">
-        <v>4.515165812648828</v>
+        <v>4.515165812648877</v>
       </c>
       <c r="E20">
-        <v>38.78887484719753</v>
+        <v>38.78887484719766</v>
       </c>
       <c r="F20">
-        <v>52.03542298882682</v>
+        <v>52.03542298882715</v>
       </c>
       <c r="G20">
-        <v>1.950979899564403</v>
+        <v>1.950979899564405</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.93639359884308</v>
+        <v>10.93639359884294</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.2050298071465</v>
+        <v>41.20502980714657</v>
       </c>
       <c r="C21">
-        <v>32.18602712183528</v>
+        <v>32.18602712183531</v>
       </c>
       <c r="D21">
-        <v>4.713002949150542</v>
+        <v>4.713002949150574</v>
       </c>
       <c r="E21">
-        <v>42.02877099463385</v>
+        <v>42.02877099463397</v>
       </c>
       <c r="F21">
-        <v>56.0524254488079</v>
+        <v>56.05242544880802</v>
       </c>
       <c r="G21">
-        <v>1.926468584479149</v>
+        <v>1.926468584479017</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.66381663550853</v>
+        <v>10.66381663550852</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.09097973815327</v>
+        <v>43.09097973815322</v>
       </c>
       <c r="C22">
-        <v>33.67681202045358</v>
+        <v>33.67681202045362</v>
       </c>
       <c r="D22">
-        <v>4.994143528421207</v>
+        <v>4.994143528421268</v>
       </c>
       <c r="E22">
-        <v>44.18436886499927</v>
+        <v>44.18436886499929</v>
       </c>
       <c r="F22">
-        <v>58.70820106123702</v>
+        <v>58.70820106123701</v>
       </c>
       <c r="G22">
-        <v>1.909861973541531</v>
+        <v>1.909861973541402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.08430405701105</v>
+        <v>42.08430405701095</v>
       </c>
       <c r="C23">
-        <v>32.88053524773039</v>
+        <v>32.88053524773043</v>
       </c>
       <c r="D23">
-        <v>4.842861557988143</v>
+        <v>4.842861557988106</v>
       </c>
       <c r="E23">
-        <v>43.02876290011907</v>
+        <v>43.02876290011897</v>
       </c>
       <c r="F23">
-        <v>57.28662739625553</v>
+        <v>57.28662739625542</v>
       </c>
       <c r="G23">
-        <v>1.918791755547633</v>
+        <v>1.918791755547504</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.58515148092234</v>
+        <v>10.58515148092236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.25948213722169</v>
+        <v>38.25948213722183</v>
       </c>
       <c r="C24">
-        <v>29.86551460304182</v>
+        <v>29.86551460304192</v>
       </c>
       <c r="D24">
-        <v>4.512437299942304</v>
+        <v>4.512437299942303</v>
       </c>
       <c r="E24">
-        <v>38.73624560807286</v>
+        <v>38.73624560807296</v>
       </c>
       <c r="F24">
-        <v>51.97001697390191</v>
+        <v>51.9700169739021</v>
       </c>
       <c r="G24">
         <v>1.951373138350611</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.94102066222434</v>
+        <v>10.94102066222437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.03284491329738</v>
+        <v>34.03284491329744</v>
       </c>
       <c r="C25">
-        <v>26.54940354204605</v>
+        <v>26.5494035420462</v>
       </c>
       <c r="D25">
-        <v>4.311260061750078</v>
+        <v>4.311260061750093</v>
       </c>
       <c r="E25">
-        <v>34.14330953057475</v>
+        <v>34.14330953057478</v>
       </c>
       <c r="F25">
-        <v>46.26154687738841</v>
+        <v>46.26154687738854</v>
       </c>
       <c r="G25">
-        <v>1.985008363684556</v>
+        <v>1.985008363684424</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36389550631609</v>
+        <v>11.36389550631607</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.77988953138959</v>
+        <v>22.92508372922342</v>
       </c>
       <c r="C2">
-        <v>24.00571641003289</v>
+        <v>20.23857096788918</v>
       </c>
       <c r="D2">
-        <v>4.208375786758981</v>
+        <v>2.914255011714193</v>
       </c>
       <c r="E2">
-        <v>30.69496123494905</v>
+        <v>30.06924148847433</v>
       </c>
       <c r="F2">
-        <v>42.26103781296182</v>
+        <v>24.53780027133602</v>
       </c>
       <c r="G2">
-        <v>2.009285130902061</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.1002815209938</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.145107973568135</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.32842759527739</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.16278368561398</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +460,48 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.6990441926012</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.06214474360594</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.46799531256139</v>
+        <v>21.37762478829968</v>
       </c>
       <c r="C3">
-        <v>22.20128770422492</v>
+        <v>18.89888365348832</v>
       </c>
       <c r="D3">
-        <v>4.160390718355714</v>
+        <v>2.923272255158906</v>
       </c>
       <c r="E3">
-        <v>28.28239235834912</v>
+        <v>27.85769687741197</v>
       </c>
       <c r="F3">
-        <v>39.56150549226594</v>
+        <v>23.28502859187861</v>
       </c>
       <c r="G3">
-        <v>2.025719756243808</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>33.0511154231241</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.888362324603377</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.05609005136603</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.9655684414507</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +510,48 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.9380280845968</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.23936369014118</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.99050587723817</v>
+        <v>20.36997083700214</v>
       </c>
       <c r="C4">
-        <v>21.04924245431762</v>
+        <v>18.037003250221</v>
       </c>
       <c r="D4">
-        <v>4.139834384031086</v>
+        <v>2.928636241017961</v>
       </c>
       <c r="E4">
-        <v>26.75519243024212</v>
+        <v>26.43837903468155</v>
       </c>
       <c r="F4">
-        <v>37.88942779962382</v>
+        <v>22.50237760700961</v>
       </c>
       <c r="G4">
-        <v>2.035875336940506</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.75960193450694</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.727070539317288</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.893116958250946</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.85327578960148</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +560,48 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.08995859668128</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>11.35030551254152</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.37320182007738</v>
+        <v>19.93810671505964</v>
       </c>
       <c r="C5">
-        <v>20.56812152208438</v>
+        <v>17.68313944457385</v>
       </c>
       <c r="D5">
-        <v>4.133453422777919</v>
+        <v>2.931577638335817</v>
       </c>
       <c r="E5">
-        <v>26.12023604874544</v>
+        <v>25.84401488979225</v>
       </c>
       <c r="F5">
-        <v>37.20421647636307</v>
+        <v>22.16851365559405</v>
       </c>
       <c r="G5">
-        <v>2.040039344785936</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.20379842273808</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.660312335431068</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.823509225421541</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.80052181147162</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +610,48 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15310452408715</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>11.39651608141997</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.2697630082444</v>
+        <v>19.85736815113954</v>
       </c>
       <c r="C6">
-        <v>20.48751290562267</v>
+        <v>17.63274500660283</v>
       </c>
       <c r="D6">
-        <v>4.132507702474592</v>
+        <v>2.933039548874328</v>
       </c>
       <c r="E6">
-        <v>26.0140118313393</v>
+        <v>25.74418556119306</v>
       </c>
       <c r="F6">
-        <v>37.09020691076076</v>
+        <v>22.09835489684123</v>
       </c>
       <c r="G6">
-        <v>2.040732564086218</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.08465710210582</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.649240257825434</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.806776660674341</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.78074295800285</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +660,48 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16366254867841</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>11.40477761012009</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.98224308363403</v>
+        <v>20.34248768459941</v>
       </c>
       <c r="C7">
-        <v>21.04280176089735</v>
+        <v>18.05617998397877</v>
       </c>
       <c r="D7">
-        <v>4.139740553078346</v>
+        <v>2.931368949013085</v>
       </c>
       <c r="E7">
-        <v>26.74668155500906</v>
+        <v>26.42995923864229</v>
       </c>
       <c r="F7">
-        <v>37.88020231394903</v>
+        <v>22.45881832141717</v>
       </c>
       <c r="G7">
-        <v>2.035931379516911</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.68150095157512</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.726107428990487</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.877966981837533</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.82220677618144</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +710,48 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.09080529500017</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>11.35252693499766</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.99436971282731</v>
+        <v>22.37682517861308</v>
       </c>
       <c r="C8">
-        <v>23.39234591804592</v>
+        <v>19.81392124322917</v>
       </c>
       <c r="D8">
-        <v>4.189828131142128</v>
+        <v>2.92111273635899</v>
       </c>
       <c r="E8">
-        <v>29.8719298033104</v>
+        <v>29.31852677507025</v>
       </c>
       <c r="F8">
-        <v>41.33307155014072</v>
+        <v>24.06013050164124</v>
       </c>
       <c r="G8">
-        <v>2.014944376674247</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>34.31370057829317</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.056852224783882</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.2153890957228</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.05327035466658</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +760,48 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78031766410716</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.12534044594928</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.47545027554629</v>
+        <v>25.94993299517849</v>
       </c>
       <c r="C9">
-        <v>27.67965948835057</v>
+        <v>22.91600177204665</v>
       </c>
       <c r="D9">
-        <v>4.371031773086519</v>
+        <v>2.894237507772597</v>
       </c>
       <c r="E9">
-        <v>35.6953870437785</v>
+        <v>34.51632545216364</v>
       </c>
       <c r="F9">
-        <v>48.18903298728986</v>
+        <v>27.14656435651501</v>
       </c>
       <c r="G9">
-        <v>1.973799234012665</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>39.31264171729615</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.679909934627315</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.93446940103485</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.63383893590582</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +810,48 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21724677014341</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>10.69218320537816</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.30241081389178</v>
+        <v>28.29964639807816</v>
       </c>
       <c r="C10">
-        <v>30.68613307720625</v>
+        <v>25.02592966021563</v>
       </c>
       <c r="D10">
-        <v>4.574558112405397</v>
+        <v>2.874517940808792</v>
       </c>
       <c r="E10">
-        <v>39.89249119389967</v>
+        <v>38.08044060007407</v>
       </c>
       <c r="F10">
-        <v>53.40612111257147</v>
+        <v>29.31647667037095</v>
       </c>
       <c r="G10">
-        <v>1.942696235091538</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>42.77992334649891</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.125298660903304</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.47595863905927</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.09707651150201</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +860,48 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.84074457897584</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>10.38353362469437</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.01797831481667</v>
+        <v>29.2868999628665</v>
       </c>
       <c r="C11">
-        <v>32.03839586152038</v>
+        <v>25.97692933270367</v>
       </c>
       <c r="D11">
-        <v>4.687941319991223</v>
+        <v>2.870335021413303</v>
       </c>
       <c r="E11">
-        <v>41.81711508301741</v>
+        <v>39.65335740127511</v>
       </c>
       <c r="F11">
-        <v>55.79077606193592</v>
+        <v>30.23720653919682</v>
       </c>
       <c r="G11">
-        <v>1.928087105919614</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>44.2578949298357</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.326230814605636</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.70682436379226</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.27494617006792</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +910,48 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.68082228305768</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>10.24940491370731</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.66601254224817</v>
+        <v>29.66712485793682</v>
       </c>
       <c r="C12">
-        <v>32.55002933313189</v>
+        <v>26.31659643723226</v>
       </c>
       <c r="D12">
-        <v>4.780822860005568</v>
+        <v>2.865960604250283</v>
       </c>
       <c r="E12">
-        <v>42.55198799157954</v>
+        <v>40.24351061973617</v>
       </c>
       <c r="F12">
-        <v>56.69861440520702</v>
+        <v>30.61003246731127</v>
       </c>
       <c r="G12">
-        <v>1.922457970695931</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>44.86861412631653</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.40216946070916</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.80571253419876</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.36868439398304</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +960,48 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.6223056634603</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>10.19639464628565</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.52647975205762</v>
+        <v>29.58836817043814</v>
       </c>
       <c r="C13">
-        <v>32.43982541099742</v>
+        <v>26.24066101080179</v>
       </c>
       <c r="D13">
-        <v>4.7602340940105</v>
+        <v>2.866349117563209</v>
       </c>
       <c r="E13">
-        <v>42.39337531645074</v>
+        <v>40.11678602155846</v>
       </c>
       <c r="F13">
-        <v>56.50281846790568</v>
+        <v>30.5350705400668</v>
       </c>
       <c r="G13">
-        <v>1.923675210240503</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>44.74644083886816</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.385783972780628</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.78651915041901</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.35326855431043</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1010,48 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63480930301754</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>10.20729514768296</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.0713110731437</v>
+        <v>29.31952975634763</v>
       </c>
       <c r="C14">
-        <v>32.08048499743327</v>
+        <v>26.00368712368606</v>
       </c>
       <c r="D14">
-        <v>4.693437404482415</v>
+        <v>2.86974076636531</v>
       </c>
       <c r="E14">
-        <v>41.87742548709246</v>
+        <v>39.70207635339712</v>
       </c>
       <c r="F14">
-        <v>55.86534580158269</v>
+        <v>30.27016451680859</v>
       </c>
       <c r="G14">
-        <v>1.927626146693932</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>44.31215402227929</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.332460864999388</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.71585768987518</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.28469066131082</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1060,48 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.67596427934409</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>10.24482645127077</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.79236719507771</v>
+        <v>29.14827398190954</v>
       </c>
       <c r="C15">
-        <v>31.86038302342742</v>
+        <v>25.86389814731488</v>
       </c>
       <c r="D15">
-        <v>4.672224575325944</v>
+        <v>2.872899406335377</v>
       </c>
       <c r="E15">
-        <v>41.56231608318519</v>
+        <v>39.44706172650216</v>
       </c>
       <c r="F15">
-        <v>55.47561570845811</v>
+        <v>30.09713695425818</v>
       </c>
       <c r="G15">
-        <v>1.930032509926108</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>44.02715410963241</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.299916446579673</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.6684176619278</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.23330236668967</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1110,48 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.70145352040979</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>10.2688203465882</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.18994537542653</v>
+        <v>28.18608967922068</v>
       </c>
       <c r="C16">
-        <v>30.59759014662081</v>
+        <v>25.01498007803602</v>
       </c>
       <c r="D16">
-        <v>4.567614055939552</v>
+        <v>2.883841462194489</v>
       </c>
       <c r="E16">
-        <v>39.76732377911345</v>
+        <v>37.97487893069604</v>
       </c>
       <c r="F16">
-        <v>53.25075673711898</v>
+        <v>29.16610098171326</v>
       </c>
       <c r="G16">
-        <v>1.943639280833082</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>42.52655336509698</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.11253207119096</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.42469278927582</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.0037437098496</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1160,48 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85145622461217</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>10.40027597679935</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.20169725543031</v>
+        <v>27.58156256465757</v>
       </c>
       <c r="C17">
-        <v>29.82007717719206</v>
+        <v>24.48507079696841</v>
       </c>
       <c r="D17">
-        <v>4.509143613770221</v>
+        <v>2.890379549361518</v>
       </c>
       <c r="E17">
-        <v>38.67246963559732</v>
+        <v>37.06015717529272</v>
       </c>
       <c r="F17">
-        <v>51.89075420541577</v>
+        <v>28.59025966907327</v>
       </c>
       <c r="G17">
-        <v>1.951849441189698</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>41.60617741502069</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.99734351959527</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.27635469370917</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.86638987394169</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1210,48 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.94663545181726</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>10.48118728610773</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.63074961004674</v>
+        <v>27.24350194039991</v>
       </c>
       <c r="C18">
-        <v>29.37129270217499</v>
+        <v>24.16061068615867</v>
       </c>
       <c r="D18">
-        <v>4.47742848024358</v>
+        <v>2.891354472545336</v>
       </c>
       <c r="E18">
-        <v>38.04389521525668</v>
+        <v>36.53008087452167</v>
       </c>
       <c r="F18">
-        <v>51.10934685163431</v>
+        <v>28.28531122537513</v>
       </c>
       <c r="G18">
-        <v>1.956530657600825</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>41.12239615992766</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.930259979425832</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.20264730712284</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.81373705426001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1260,48 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.00241704196985</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>10.52550663431085</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.43694840415099</v>
+        <v>27.11662633027645</v>
       </c>
       <c r="C19">
-        <v>29.21902442800161</v>
+        <v>24.06266321242764</v>
       </c>
       <c r="D19">
-        <v>4.467003490494714</v>
+        <v>2.893777235660088</v>
       </c>
       <c r="E19">
-        <v>37.83117051402608</v>
+        <v>36.3493930417872</v>
       </c>
       <c r="F19">
-        <v>50.84483708612397</v>
+        <v>28.1602194891759</v>
       </c>
       <c r="G19">
-        <v>1.958109387582302</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>40.9201044995895</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.908023179703201</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.16914969860487</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.77677129316358</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1310,48 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.02147150880053</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>10.54233153149366</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.30714723703572</v>
+        <v>27.64762121532059</v>
       </c>
       <c r="C20">
-        <v>29.90299696036298</v>
+        <v>24.54057415188489</v>
       </c>
       <c r="D20">
-        <v>4.515165812648877</v>
+        <v>2.889474526235546</v>
       </c>
       <c r="E20">
-        <v>38.78887484719766</v>
+        <v>37.15803414760176</v>
       </c>
       <c r="F20">
-        <v>52.03542298882715</v>
+        <v>28.65391030443735</v>
       </c>
       <c r="G20">
-        <v>1.950979899564405</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>41.70834046264159</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.009557479634322</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.29297266441438</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.88284340216086</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1360,48 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.93639359884294</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>10.47237660806137</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.20502980714657</v>
+        <v>29.38303603270809</v>
       </c>
       <c r="C21">
-        <v>32.18602712183531</v>
+        <v>26.09033726204483</v>
       </c>
       <c r="D21">
-        <v>4.713002949150574</v>
+        <v>2.871872281434671</v>
       </c>
       <c r="E21">
-        <v>42.02877099463397</v>
+        <v>39.82337751910607</v>
       </c>
       <c r="F21">
-        <v>56.05242544880802</v>
+        <v>30.31865056135646</v>
       </c>
       <c r="G21">
-        <v>1.926468584479017</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>44.38868556032823</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.348509261800456</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.72459739843305</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.27747951516594</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1410,48 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.66381663550852</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.23664573258457</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.09097973815322</v>
+        <v>30.49116493731869</v>
       </c>
       <c r="C22">
-        <v>33.67681202045362</v>
+        <v>27.05277327242093</v>
       </c>
       <c r="D22">
-        <v>4.994143528421268</v>
+        <v>2.855766857787338</v>
       </c>
       <c r="E22">
-        <v>44.18436886499929</v>
+        <v>41.53145598623767</v>
       </c>
       <c r="F22">
-        <v>58.70820106123701</v>
+        <v>31.46284809076329</v>
       </c>
       <c r="G22">
-        <v>1.909861973541402</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>46.2070620202472</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.569046797774892</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.02587335590042</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.5818406590336</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1460,48 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.49788447360396</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.07968125113416</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.08430405701095</v>
+        <v>29.9225955669677</v>
       </c>
       <c r="C23">
-        <v>32.88053524773043</v>
+        <v>26.52150848135603</v>
       </c>
       <c r="D23">
-        <v>4.842861557988106</v>
+        <v>2.860649990442787</v>
       </c>
       <c r="E23">
-        <v>43.02876290011897</v>
+        <v>40.62353761522331</v>
       </c>
       <c r="F23">
-        <v>57.28662739625542</v>
+        <v>30.87279528719334</v>
       </c>
       <c r="G23">
-        <v>1.918791755547504</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>45.3008104128781</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.451144423504388</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.8790723444452</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.45104412209041</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1510,48 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.58515148092236</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>10.15993651432559</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.25948213722183</v>
+        <v>27.64904496074685</v>
       </c>
       <c r="C24">
-        <v>29.86551460304192</v>
+        <v>24.48153467728346</v>
       </c>
       <c r="D24">
-        <v>4.512437299942303</v>
+        <v>2.884106828104945</v>
       </c>
       <c r="E24">
-        <v>38.73624560807296</v>
+        <v>37.11496787318991</v>
       </c>
       <c r="F24">
-        <v>51.9700169739021</v>
+        <v>28.68374010062693</v>
       </c>
       <c r="G24">
-        <v>1.951373138350611</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>41.7650736217156</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.003156856555958</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.30896653266788</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.92831346718491</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1560,48 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.94102066222437</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>10.47137641616789</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.03284491329744</v>
+        <v>24.99795249825225</v>
       </c>
       <c r="C25">
-        <v>26.5494035420462</v>
+        <v>22.14473379106819</v>
       </c>
       <c r="D25">
-        <v>4.311260061750093</v>
+        <v>2.907091019087534</v>
       </c>
       <c r="E25">
-        <v>34.14330953057478</v>
+        <v>33.15625485086412</v>
       </c>
       <c r="F25">
-        <v>46.26154687738854</v>
+        <v>26.26435191102329</v>
       </c>
       <c r="G25">
-        <v>1.985008363684424</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>37.88301111183816</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.513761831876869</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.71263866302648</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.41543235509891</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1610,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36389550631607</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>10.81198944162847</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.92508372922342</v>
+        <v>22.26838594415621</v>
       </c>
       <c r="C2">
-        <v>20.23857096788918</v>
+        <v>20.75520568119261</v>
       </c>
       <c r="D2">
-        <v>2.914255011714193</v>
+        <v>3.093530220047286</v>
       </c>
       <c r="E2">
-        <v>30.06924148847433</v>
+        <v>30.00588840369805</v>
       </c>
       <c r="F2">
-        <v>24.53780027133602</v>
+        <v>23.54474042393126</v>
       </c>
       <c r="G2">
-        <v>35.1002815209938</v>
+        <v>32.9066302246771</v>
       </c>
       <c r="I2">
-        <v>4.145107973568135</v>
+        <v>3.99806801985667</v>
       </c>
       <c r="J2">
-        <v>10.32842759527739</v>
+        <v>10.65688953353141</v>
       </c>
       <c r="K2">
-        <v>14.16278368561398</v>
+        <v>13.4443379078341</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.51855730967719</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.770411441234355</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -466,48 +472,54 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.06214474360594</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.21058433749146</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.37762478829968</v>
+        <v>20.81461137586169</v>
       </c>
       <c r="C3">
-        <v>18.89888365348832</v>
+        <v>19.33825714674891</v>
       </c>
       <c r="D3">
-        <v>2.923272255158906</v>
+        <v>3.06682775199725</v>
       </c>
       <c r="E3">
-        <v>27.85769687741197</v>
+        <v>27.8114340297806</v>
       </c>
       <c r="F3">
-        <v>23.28502859187861</v>
+        <v>22.43844794066752</v>
       </c>
       <c r="G3">
-        <v>33.0511154231241</v>
+        <v>31.05153689610481</v>
       </c>
       <c r="I3">
-        <v>3.888362324603377</v>
+        <v>3.777683627306008</v>
       </c>
       <c r="J3">
-        <v>10.05609005136603</v>
+        <v>10.42291588911366</v>
       </c>
       <c r="K3">
-        <v>13.9655684414507</v>
+        <v>13.3524193911527</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.6076172788786</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.43062454984799</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -516,48 +528,54 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.23936369014118</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.34650896662187</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.36997083700214</v>
+        <v>19.8669242963402</v>
       </c>
       <c r="C4">
-        <v>18.037003250221</v>
+        <v>18.42508250270074</v>
       </c>
       <c r="D4">
-        <v>2.928636241017961</v>
+        <v>3.050232301662367</v>
       </c>
       <c r="E4">
-        <v>26.43837903468155</v>
+        <v>26.40161386231145</v>
       </c>
       <c r="F4">
-        <v>22.50237760700961</v>
+        <v>21.74664052705669</v>
       </c>
       <c r="G4">
-        <v>31.75960193450694</v>
+        <v>29.88502476688375</v>
       </c>
       <c r="I4">
-        <v>3.727070539317288</v>
+        <v>3.639181471389277</v>
       </c>
       <c r="J4">
-        <v>9.893116958250946</v>
+        <v>10.27911077521192</v>
       </c>
       <c r="K4">
-        <v>13.85327578960148</v>
+        <v>13.30218597309051</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.66077935319817</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.251149264480803</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -566,48 +584,54 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.35030551254152</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.43287722112197</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.93810671505964</v>
+        <v>19.4603403862833</v>
       </c>
       <c r="C5">
-        <v>17.68313944457385</v>
+        <v>18.04931369785599</v>
       </c>
       <c r="D5">
-        <v>2.931577638335817</v>
+        <v>3.044359395475901</v>
       </c>
       <c r="E5">
-        <v>25.84401488979225</v>
+        <v>25.81091898751532</v>
       </c>
       <c r="F5">
-        <v>22.16851365559405</v>
+        <v>21.45036538332903</v>
       </c>
       <c r="G5">
-        <v>31.20379842273808</v>
+        <v>29.38204109999876</v>
       </c>
       <c r="I5">
-        <v>3.660312335431068</v>
+        <v>3.582103849390347</v>
       </c>
       <c r="J5">
-        <v>9.823509225421541</v>
+        <v>10.2165318889265</v>
       </c>
       <c r="K5">
-        <v>13.80052181147162</v>
+        <v>13.2747312291308</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.67546040979232</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.179369207673196</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -616,48 +640,54 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.39651608141997</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.46947452928895</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.85736815113954</v>
+        <v>19.38408496479502</v>
       </c>
       <c r="C6">
-        <v>17.63274500660283</v>
+        <v>17.99517211107783</v>
       </c>
       <c r="D6">
-        <v>2.933039548874328</v>
+        <v>3.044530070388754</v>
       </c>
       <c r="E6">
-        <v>25.74418556119306</v>
+        <v>25.7117032088839</v>
       </c>
       <c r="F6">
-        <v>22.09835489684123</v>
+        <v>21.38695476808921</v>
       </c>
       <c r="G6">
-        <v>31.08465710210582</v>
+        <v>29.27234814947928</v>
       </c>
       <c r="I6">
-        <v>3.649240257825434</v>
+        <v>3.573007467580437</v>
       </c>
       <c r="J6">
-        <v>9.806776660674341</v>
+        <v>10.20128524970997</v>
       </c>
       <c r="K6">
-        <v>13.78074295800285</v>
+        <v>13.25994041468183</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.66982636130194</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.160015528145042</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -666,48 +696,54 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.40477761012009</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.47642544201278</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.34248768459941</v>
+        <v>19.83125034832133</v>
       </c>
       <c r="C7">
-        <v>18.05617998397877</v>
+        <v>18.42815617079405</v>
       </c>
       <c r="D7">
-        <v>2.931368949013085</v>
+        <v>3.055671814353337</v>
       </c>
       <c r="E7">
-        <v>26.42995923864229</v>
+        <v>26.39293718633867</v>
       </c>
       <c r="F7">
-        <v>22.45881832141717</v>
+        <v>21.67898153886393</v>
       </c>
       <c r="G7">
-        <v>31.68150095157512</v>
+        <v>29.90236791895819</v>
       </c>
       <c r="I7">
-        <v>3.726107428990487</v>
+        <v>3.638433423620776</v>
       </c>
       <c r="J7">
-        <v>9.877966981837533</v>
+        <v>10.20195194228957</v>
       </c>
       <c r="K7">
-        <v>13.82220677618144</v>
+        <v>13.26190991493918</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.63027907367088</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.218843586148703</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -716,48 +752,54 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.35252693499766</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.4368960371549</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.37682517861308</v>
+        <v>21.72459682228607</v>
       </c>
       <c r="C8">
-        <v>19.81392124322917</v>
+        <v>20.25649829299478</v>
       </c>
       <c r="D8">
-        <v>2.92111273635899</v>
+        <v>3.096792232276387</v>
       </c>
       <c r="E8">
-        <v>29.31852677507025</v>
+        <v>29.26012367952928</v>
       </c>
       <c r="F8">
-        <v>24.06013050164124</v>
+        <v>23.03766492128768</v>
       </c>
       <c r="G8">
-        <v>34.31370057829317</v>
+        <v>32.4762860610216</v>
       </c>
       <c r="I8">
-        <v>4.056852224783882</v>
+        <v>3.920761113799958</v>
       </c>
       <c r="J8">
-        <v>10.2153890957228</v>
+        <v>10.35529788773782</v>
       </c>
       <c r="K8">
-        <v>14.05327035466658</v>
+        <v>13.33596293096885</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.49455428264347</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.584987115000651</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -766,48 +808,54 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.12534044594928</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.26488255989807</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.94993299517849</v>
+        <v>25.07191405192466</v>
       </c>
       <c r="C9">
-        <v>22.91600177204665</v>
+        <v>23.52361769163201</v>
       </c>
       <c r="D9">
-        <v>2.894237507772597</v>
+        <v>3.160912010154954</v>
       </c>
       <c r="E9">
-        <v>34.51632545216364</v>
+        <v>34.407286188696</v>
       </c>
       <c r="F9">
-        <v>27.14656435651501</v>
+        <v>25.7513936931599</v>
       </c>
       <c r="G9">
-        <v>39.31264171729615</v>
+        <v>37.06097982543856</v>
       </c>
       <c r="I9">
-        <v>4.679909934627315</v>
+        <v>4.453555202800074</v>
       </c>
       <c r="J9">
-        <v>10.93446940103485</v>
+        <v>10.90800458862383</v>
       </c>
       <c r="K9">
-        <v>14.63383893590582</v>
+        <v>13.62803447762419</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.28526071551365</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.588282171619005</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -816,48 +864,54 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>10.69218320537816</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>10.9414532431874</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.29964639807816</v>
+        <v>27.22450961024713</v>
       </c>
       <c r="C10">
-        <v>25.02592966021563</v>
+        <v>25.66572127299026</v>
       </c>
       <c r="D10">
-        <v>2.874517940808792</v>
+        <v>3.223404472869599</v>
       </c>
       <c r="E10">
-        <v>38.08044060007407</v>
+        <v>37.92233507909288</v>
       </c>
       <c r="F10">
-        <v>29.31647667037095</v>
+        <v>27.53396841984879</v>
       </c>
       <c r="G10">
-        <v>42.77992334649891</v>
+        <v>40.71724527741611</v>
       </c>
       <c r="I10">
-        <v>5.125298660903304</v>
+        <v>4.830001178742573</v>
       </c>
       <c r="J10">
-        <v>11.47595863905927</v>
+        <v>10.97668877911651</v>
       </c>
       <c r="K10">
-        <v>15.09707651150201</v>
+        <v>13.8046879804174</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.07392837800699</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.354010238022417</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -866,48 +920,54 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>10.38353362469437</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>10.73023724984625</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.2868999628665</v>
+        <v>28.05595951007038</v>
       </c>
       <c r="C11">
-        <v>25.97692933270367</v>
+        <v>26.51044427078017</v>
       </c>
       <c r="D11">
-        <v>2.870335021413303</v>
+        <v>3.285371561518634</v>
       </c>
       <c r="E11">
-        <v>39.65335740127511</v>
+        <v>39.46541118794447</v>
       </c>
       <c r="F11">
-        <v>30.23720653919682</v>
+        <v>28.07581159613218</v>
       </c>
       <c r="G11">
-        <v>44.2578949298357</v>
+        <v>42.99435658228852</v>
       </c>
       <c r="I11">
-        <v>5.326230814605636</v>
+        <v>4.9943727599216</v>
       </c>
       <c r="J11">
-        <v>11.70682436379226</v>
+        <v>10.42277357616841</v>
       </c>
       <c r="K11">
-        <v>15.27494617006792</v>
+        <v>13.73984375277511</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.87752509030987</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.585957779167499</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -916,48 +976,54 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>10.24940491370731</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>10.66381856558066</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.66712485793682</v>
+        <v>28.36918314048905</v>
       </c>
       <c r="C12">
-        <v>26.31659643723226</v>
+        <v>26.79646994591891</v>
       </c>
       <c r="D12">
-        <v>2.865960604250283</v>
+        <v>3.309435650662175</v>
       </c>
       <c r="E12">
-        <v>40.24351061973617</v>
+        <v>40.0430586400749</v>
       </c>
       <c r="F12">
-        <v>30.61003246731127</v>
+        <v>28.28090687930518</v>
       </c>
       <c r="G12">
-        <v>44.86861412631653</v>
+        <v>43.97404891521856</v>
       </c>
       <c r="I12">
-        <v>5.40216946070916</v>
+        <v>5.054935397343375</v>
       </c>
       <c r="J12">
-        <v>11.80571253419876</v>
+        <v>10.1564056108274</v>
       </c>
       <c r="K12">
-        <v>15.36868439398304</v>
+        <v>13.72542606327346</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.8092806070593</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.734621169328332</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -966,48 +1032,54 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.19639464628565</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>10.63877184804969</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.58836817043814</v>
+        <v>28.30509365670389</v>
       </c>
       <c r="C13">
-        <v>26.24066101080179</v>
+        <v>26.73271267440936</v>
       </c>
       <c r="D13">
-        <v>2.866349117563209</v>
+        <v>3.303402716122868</v>
       </c>
       <c r="E13">
-        <v>40.11678602155846</v>
+        <v>39.91906330223774</v>
       </c>
       <c r="F13">
-        <v>30.5350705400668</v>
+        <v>28.2429272402644</v>
       </c>
       <c r="G13">
-        <v>44.74644083886816</v>
+        <v>43.76865825231333</v>
       </c>
       <c r="I13">
-        <v>5.385783972780628</v>
+        <v>5.041715158798443</v>
       </c>
       <c r="J13">
-        <v>11.78651915041901</v>
+        <v>10.21859565445272</v>
       </c>
       <c r="K13">
-        <v>15.35326855431043</v>
+        <v>13.73358315880486</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.82723321563413</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.703989808330505</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1016,48 +1088,54 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>10.20729514768296</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>10.64326360384153</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.31952975634763</v>
+        <v>28.08318664958965</v>
       </c>
       <c r="C14">
-        <v>26.00368712368606</v>
+        <v>26.53307030720725</v>
       </c>
       <c r="D14">
-        <v>2.86974076636531</v>
+        <v>3.28698904647581</v>
       </c>
       <c r="E14">
-        <v>39.70207635339712</v>
+        <v>39.51311788730536</v>
       </c>
       <c r="F14">
-        <v>30.27016451680859</v>
+        <v>28.09536164498302</v>
       </c>
       <c r="G14">
-        <v>44.31215402227929</v>
+        <v>43.07728410969291</v>
       </c>
       <c r="I14">
-        <v>5.332460864999388</v>
+        <v>4.99927553510393</v>
       </c>
       <c r="J14">
-        <v>11.71585768987518</v>
+        <v>10.40299511797592</v>
       </c>
       <c r="K14">
-        <v>15.28469066131082</v>
+        <v>13.74082484799811</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.87331255011037</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.595773228152311</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1066,48 +1144,54 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10.24482645127077</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>10.66137660192821</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.14827398190954</v>
+        <v>27.93988933265976</v>
       </c>
       <c r="C15">
-        <v>25.86389814731488</v>
+        <v>26.41434204556647</v>
       </c>
       <c r="D15">
-        <v>2.872899406335377</v>
+        <v>3.278747102759421</v>
       </c>
       <c r="E15">
-        <v>39.44706172650216</v>
+        <v>39.26335134317547</v>
       </c>
       <c r="F15">
-        <v>30.09713695425818</v>
+        <v>27.99152496287939</v>
       </c>
       <c r="G15">
-        <v>44.02715410963241</v>
+        <v>42.64555204357997</v>
       </c>
       <c r="I15">
-        <v>5.299916446579673</v>
+        <v>4.973670653134701</v>
       </c>
       <c r="J15">
-        <v>11.6684176619278</v>
+        <v>10.50352670811983</v>
       </c>
       <c r="K15">
-        <v>15.23330236668967</v>
+        <v>13.73471422130612</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.89467676699968</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.543643244827194</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1116,48 +1200,54 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>10.2688203465882</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>10.67434958274909</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.18608967922068</v>
+        <v>27.12166415389066</v>
       </c>
       <c r="C16">
-        <v>25.01498007803602</v>
+        <v>25.65934995806025</v>
       </c>
       <c r="D16">
-        <v>2.883841462194489</v>
+        <v>3.230502007215957</v>
       </c>
       <c r="E16">
-        <v>37.97487893069604</v>
+        <v>37.81881441956277</v>
       </c>
       <c r="F16">
-        <v>29.16610098171326</v>
+        <v>27.40809361581454</v>
       </c>
       <c r="G16">
-        <v>42.52655336509698</v>
+        <v>40.42665574123607</v>
       </c>
       <c r="I16">
-        <v>5.11253207119096</v>
+        <v>4.822351958326023</v>
       </c>
       <c r="J16">
-        <v>11.42469278927582</v>
+        <v>10.9707238104316</v>
       </c>
       <c r="K16">
-        <v>15.0037437098496</v>
+        <v>13.7314046147787</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.03610804325647</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.273217805009351</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1166,48 +1256,54 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>10.40027597679935</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>10.74624136438484</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.58156256465757</v>
+        <v>26.59191497147876</v>
       </c>
       <c r="C17">
-        <v>24.48507079696841</v>
+        <v>25.16247986379615</v>
       </c>
       <c r="D17">
-        <v>2.890379549361518</v>
+        <v>3.206996769061197</v>
       </c>
       <c r="E17">
-        <v>37.06015717529272</v>
+        <v>36.91917045248975</v>
       </c>
       <c r="F17">
-        <v>28.59025966907327</v>
+        <v>27.00373721615252</v>
       </c>
       <c r="G17">
-        <v>41.60617741502069</v>
+        <v>39.19597413684725</v>
       </c>
       <c r="I17">
-        <v>4.99734351959527</v>
+        <v>4.727951693160843</v>
       </c>
       <c r="J17">
-        <v>11.27635469370917</v>
+        <v>11.13903785144494</v>
       </c>
       <c r="K17">
-        <v>14.86638987394169</v>
+        <v>13.70798750833329</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.10763659398078</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.090704278776711</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1216,48 +1312,54 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>10.48118728610773</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>10.7957356432632</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.24350194039991</v>
+        <v>26.29137771391887</v>
       </c>
       <c r="C18">
-        <v>24.16061068615867</v>
+        <v>24.84800320864021</v>
       </c>
       <c r="D18">
-        <v>2.891354472545336</v>
+        <v>3.192394296344561</v>
       </c>
       <c r="E18">
-        <v>36.53008087452167</v>
+        <v>36.39705512332912</v>
       </c>
       <c r="F18">
-        <v>28.28531122537513</v>
+        <v>26.78113056998551</v>
       </c>
       <c r="G18">
-        <v>41.12239615992766</v>
+        <v>38.58838365653084</v>
       </c>
       <c r="I18">
-        <v>4.930259979425832</v>
+        <v>4.671305715312581</v>
       </c>
       <c r="J18">
-        <v>11.20264730712284</v>
+        <v>11.2029263077089</v>
       </c>
       <c r="K18">
-        <v>14.81373705426001</v>
+        <v>13.71012318472171</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.15857505879021</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.999669158891137</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1266,48 +1368,54 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>10.52550663431085</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>10.82276135171464</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.11662633027645</v>
+        <v>26.17672118667573</v>
       </c>
       <c r="C19">
-        <v>24.06266321242764</v>
+        <v>24.75175997511283</v>
       </c>
       <c r="D19">
-        <v>2.893777235660088</v>
+        <v>3.190224625309172</v>
       </c>
       <c r="E19">
-        <v>36.3493930417872</v>
+        <v>36.21901016565393</v>
       </c>
       <c r="F19">
-        <v>28.1602194891759</v>
+        <v>26.6820055400807</v>
       </c>
       <c r="G19">
-        <v>40.9201044995895</v>
+        <v>38.35933123948846</v>
       </c>
       <c r="I19">
-        <v>4.908023179703201</v>
+        <v>4.653283788105968</v>
       </c>
       <c r="J19">
-        <v>11.16914969860487</v>
+        <v>11.20930921965654</v>
       </c>
       <c r="K19">
-        <v>14.77677129316358</v>
+        <v>13.69166319439425</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.16304076615896</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.952623749356773</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1316,48 +1424,54 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>10.54233153149366</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>10.83469995584549</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.64762121532059</v>
+        <v>26.65049249789923</v>
       </c>
       <c r="C20">
-        <v>24.54057415188489</v>
+        <v>25.21542073659867</v>
       </c>
       <c r="D20">
-        <v>2.889474526235546</v>
+        <v>3.209031003077954</v>
       </c>
       <c r="E20">
-        <v>37.15803414760176</v>
+        <v>37.01550460461814</v>
       </c>
       <c r="F20">
-        <v>28.65391030443735</v>
+        <v>27.05064959246173</v>
       </c>
       <c r="G20">
-        <v>41.70834046264159</v>
+        <v>39.32565590860425</v>
       </c>
       <c r="I20">
-        <v>5.009557479634322</v>
+        <v>4.737924205379261</v>
       </c>
       <c r="J20">
-        <v>11.29297266441438</v>
+        <v>11.12639464748517</v>
       </c>
       <c r="K20">
-        <v>14.88284340216086</v>
+        <v>13.7130888393225</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.10179215520258</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.112289012967967</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1366,48 +1480,54 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>10.47237660806137</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>10.79001827143465</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.38303603270809</v>
+        <v>28.10894271231458</v>
       </c>
       <c r="C21">
-        <v>26.09033726204483</v>
+        <v>26.56714586709529</v>
       </c>
       <c r="D21">
-        <v>2.871872281434671</v>
+        <v>3.305377831279345</v>
       </c>
       <c r="E21">
-        <v>39.82337751910607</v>
+        <v>39.63040013737734</v>
       </c>
       <c r="F21">
-        <v>30.31865056135646</v>
+        <v>28.03679306200813</v>
       </c>
       <c r="G21">
-        <v>44.38868556032823</v>
+        <v>43.48171353308145</v>
       </c>
       <c r="I21">
-        <v>5.348509261800456</v>
+        <v>5.010859700005059</v>
       </c>
       <c r="J21">
-        <v>11.72459739843305</v>
+        <v>10.13974718134883</v>
       </c>
       <c r="K21">
-        <v>15.27747951516594</v>
+        <v>13.6734182449861</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.81792389037894</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.567023122013175</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1416,48 +1536,54 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.23664573258457</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>10.66693273673928</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.49116493731869</v>
+        <v>29.03244102030442</v>
       </c>
       <c r="C22">
-        <v>27.05277327242093</v>
+        <v>27.39098869439728</v>
       </c>
       <c r="D22">
-        <v>2.855766857787338</v>
+        <v>3.369269358276816</v>
       </c>
       <c r="E22">
-        <v>41.53145598623767</v>
+        <v>41.30134345111675</v>
       </c>
       <c r="F22">
-        <v>31.46284809076329</v>
+        <v>28.68913789178483</v>
       </c>
       <c r="G22">
-        <v>46.2070620202472</v>
+        <v>46.26200690590551</v>
       </c>
       <c r="I22">
-        <v>5.569046797774892</v>
+        <v>5.186732807546994</v>
       </c>
       <c r="J22">
-        <v>12.02587335590042</v>
+        <v>9.453891507310585</v>
       </c>
       <c r="K22">
-        <v>15.5818406590336</v>
+        <v>13.67381793162342</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.64564031271199</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.07066174776834</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1466,48 +1592,54 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.07968125113416</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.59010033039199</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.9225955669677</v>
+        <v>28.57890839068421</v>
       </c>
       <c r="C23">
-        <v>26.52150848135603</v>
+        <v>26.96321847481092</v>
       </c>
       <c r="D23">
-        <v>2.860649990442787</v>
+        <v>3.323093621485618</v>
       </c>
       <c r="E23">
-        <v>40.62353761522331</v>
+        <v>40.41461085241226</v>
       </c>
       <c r="F23">
-        <v>30.87279528719334</v>
+        <v>28.42816650747954</v>
       </c>
       <c r="G23">
-        <v>45.3008104128781</v>
+        <v>44.66453753296313</v>
       </c>
       <c r="I23">
-        <v>5.451144423504388</v>
+        <v>5.093055452694557</v>
       </c>
       <c r="J23">
-        <v>11.8790723444452</v>
+        <v>9.974328130185274</v>
       </c>
       <c r="K23">
-        <v>15.45104412209041</v>
+        <v>13.73224069702193</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.77533615481853</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.851919279644338</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1516,48 +1648,54 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.15993651432559</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.62032740979463</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.64904496074685</v>
+        <v>26.65428931740734</v>
       </c>
       <c r="C24">
-        <v>24.48153467728346</v>
+        <v>25.15783964169825</v>
       </c>
       <c r="D24">
-        <v>2.884106828104945</v>
+        <v>3.201387462660932</v>
       </c>
       <c r="E24">
-        <v>37.11496787318991</v>
+        <v>36.97298945662315</v>
       </c>
       <c r="F24">
-        <v>28.68374010062693</v>
+        <v>27.08612943563706</v>
       </c>
       <c r="G24">
-        <v>41.7650736217156</v>
+        <v>39.36630664594946</v>
       </c>
       <c r="I24">
-        <v>5.003156856555958</v>
+        <v>4.730559237736496</v>
       </c>
       <c r="J24">
-        <v>11.30896653266788</v>
+        <v>11.15370642156213</v>
       </c>
       <c r="K24">
-        <v>14.92831346718491</v>
+        <v>13.75975438401599</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.13666295217056</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.144188658453926</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1566,48 +1704,54 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>10.47137641616789</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>10.78564530080865</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.99795249825225</v>
+        <v>24.1912763810348</v>
       </c>
       <c r="C25">
-        <v>22.14473379106819</v>
+        <v>22.72954640414202</v>
       </c>
       <c r="D25">
-        <v>2.907091019087534</v>
+        <v>3.146543068747754</v>
       </c>
       <c r="E25">
-        <v>33.15625485086412</v>
+        <v>33.0629701331128</v>
       </c>
       <c r="F25">
-        <v>26.26435191102329</v>
+        <v>25.00312786968441</v>
       </c>
       <c r="G25">
-        <v>37.88301111183816</v>
+        <v>35.62858052957569</v>
       </c>
       <c r="I25">
-        <v>4.513761831876869</v>
+        <v>4.314315396277403</v>
       </c>
       <c r="J25">
-        <v>10.71263866302648</v>
+        <v>10.82117617328102</v>
       </c>
       <c r="K25">
-        <v>14.41543235509891</v>
+        <v>13.51002468820705</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.3209081841024</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.270171479017636</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1616,9 +1760,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>10.81198944162847</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.03024820708505</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
